--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_pb.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_pb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4049B2E-3C49-4C30-9BF0-B6A0AB12ECB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0750AB80-186E-6F46-A722-16BB255EDC43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1361,16 +1361,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1394,9 +1388,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1702,20 +1695,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D229"/>
+  <dimension ref="A1:D224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="J223" sqref="J223"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="A225" sqref="A225:C242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -1729,7 +1722,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2500106</v>
       </c>
@@ -1740,7 +1733,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2500205</v>
       </c>
@@ -1751,7 +1744,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2500304</v>
       </c>
@@ -1762,7 +1755,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2500403</v>
       </c>
@@ -1773,7 +1766,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2500502</v>
       </c>
@@ -1784,7 +1777,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2500536</v>
       </c>
@@ -1795,7 +1788,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2500577</v>
       </c>
@@ -1806,7 +1799,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2500601</v>
       </c>
@@ -1817,7 +1810,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2500700</v>
       </c>
@@ -1828,7 +1821,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2500734</v>
       </c>
@@ -1839,7 +1832,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2500775</v>
       </c>
@@ -1850,7 +1843,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2500809</v>
       </c>
@@ -1861,7 +1854,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2500908</v>
       </c>
@@ -1872,7 +1865,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2501005</v>
       </c>
@@ -1883,7 +1876,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2501104</v>
       </c>
@@ -1894,7 +1887,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2501153</v>
       </c>
@@ -1905,7 +1898,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2501203</v>
       </c>
@@ -1916,7 +1909,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2501302</v>
       </c>
@@ -1927,7 +1920,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2501351</v>
       </c>
@@ -1938,7 +1931,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2501401</v>
       </c>
@@ -1949,7 +1942,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2501500</v>
       </c>
@@ -1960,7 +1953,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2501534</v>
       </c>
@@ -1971,7 +1964,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2501575</v>
       </c>
@@ -1982,7 +1975,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2501609</v>
       </c>
@@ -1993,7 +1986,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2501708</v>
       </c>
@@ -2004,7 +1997,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2501807</v>
       </c>
@@ -2015,7 +2008,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2501906</v>
       </c>
@@ -2026,7 +2019,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2502003</v>
       </c>
@@ -2037,7 +2030,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2502052</v>
       </c>
@@ -2048,7 +2041,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2502102</v>
       </c>
@@ -2059,7 +2052,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2502151</v>
       </c>
@@ -2070,7 +2063,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2502201</v>
       </c>
@@ -2081,7 +2074,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2502300</v>
       </c>
@@ -2092,7 +2085,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2502409</v>
       </c>
@@ -2103,7 +2096,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2502508</v>
       </c>
@@ -2114,7 +2107,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2502607</v>
       </c>
@@ -2125,7 +2118,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2502706</v>
       </c>
@@ -2136,7 +2129,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2502805</v>
       </c>
@@ -2147,7 +2140,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2502904</v>
       </c>
@@ -2158,7 +2151,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2503001</v>
       </c>
@@ -2169,7 +2162,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2503100</v>
       </c>
@@ -2180,7 +2173,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2503209</v>
       </c>
@@ -2191,7 +2184,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2503308</v>
       </c>
@@ -2202,7 +2195,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2503407</v>
       </c>
@@ -2213,7 +2206,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2503506</v>
       </c>
@@ -2224,7 +2217,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2503555</v>
       </c>
@@ -2235,7 +2228,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2503605</v>
       </c>
@@ -2246,7 +2239,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2503704</v>
       </c>
@@ -2257,7 +2250,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2503753</v>
       </c>
@@ -2268,7 +2261,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2503803</v>
       </c>
@@ -2279,7 +2272,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2503902</v>
       </c>
@@ -2290,7 +2283,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2504009</v>
       </c>
@@ -2301,7 +2294,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2504033</v>
       </c>
@@ -2312,7 +2305,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2504074</v>
       </c>
@@ -2323,7 +2316,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2504108</v>
       </c>
@@ -2334,7 +2327,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2504157</v>
       </c>
@@ -2345,7 +2338,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2504207</v>
       </c>
@@ -2356,7 +2349,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2504306</v>
       </c>
@@ -2367,7 +2360,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2504355</v>
       </c>
@@ -2378,7 +2371,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2504405</v>
       </c>
@@ -2389,7 +2382,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2504504</v>
       </c>
@@ -2400,7 +2393,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2504603</v>
       </c>
@@ -2411,7 +2404,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2504702</v>
       </c>
@@ -2422,7 +2415,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2504801</v>
       </c>
@@ -2433,7 +2426,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2504850</v>
       </c>
@@ -2444,7 +2437,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2504900</v>
       </c>
@@ -2455,7 +2448,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2505006</v>
       </c>
@@ -2466,7 +2459,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2505105</v>
       </c>
@@ -2477,7 +2470,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2505204</v>
       </c>
@@ -2488,7 +2481,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2505238</v>
       </c>
@@ -2499,7 +2492,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2505279</v>
       </c>
@@ -2510,7 +2503,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2505303</v>
       </c>
@@ -2521,7 +2514,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2505352</v>
       </c>
@@ -2532,7 +2525,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2505402</v>
       </c>
@@ -2543,7 +2536,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2505501</v>
       </c>
@@ -2554,7 +2547,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2505600</v>
       </c>
@@ -2565,7 +2558,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2505709</v>
       </c>
@@ -2576,7 +2569,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2505808</v>
       </c>
@@ -2587,7 +2580,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2505907</v>
       </c>
@@ -2598,7 +2591,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2506004</v>
       </c>
@@ -2609,7 +2602,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2506103</v>
       </c>
@@ -2620,7 +2613,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2506202</v>
       </c>
@@ -2631,7 +2624,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2506251</v>
       </c>
@@ -2642,7 +2635,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2506301</v>
       </c>
@@ -2653,7 +2646,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2506400</v>
       </c>
@@ -2664,7 +2657,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2506509</v>
       </c>
@@ -2675,7 +2668,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2506608</v>
       </c>
@@ -2686,7 +2679,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2506707</v>
       </c>
@@ -2697,7 +2690,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2506806</v>
       </c>
@@ -2708,7 +2701,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2506905</v>
       </c>
@@ -2719,7 +2712,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2507002</v>
       </c>
@@ -2730,7 +2723,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2507101</v>
       </c>
@@ -2741,7 +2734,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2507200</v>
       </c>
@@ -2752,7 +2745,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2507309</v>
       </c>
@@ -2763,7 +2756,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2507408</v>
       </c>
@@ -2774,7 +2767,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2507507</v>
       </c>
@@ -2785,7 +2778,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2507606</v>
       </c>
@@ -2796,7 +2789,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2507705</v>
       </c>
@@ -2807,7 +2800,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2507804</v>
       </c>
@@ -2818,7 +2811,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2507903</v>
       </c>
@@ -2829,7 +2822,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2508000</v>
       </c>
@@ -2840,7 +2833,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2508109</v>
       </c>
@@ -2851,7 +2844,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2508208</v>
       </c>
@@ -2862,7 +2855,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2508307</v>
       </c>
@@ -2873,7 +2866,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2508406</v>
       </c>
@@ -2884,7 +2877,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2508505</v>
       </c>
@@ -2895,7 +2888,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2508554</v>
       </c>
@@ -2906,7 +2899,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2508604</v>
       </c>
@@ -2917,7 +2910,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2508703</v>
       </c>
@@ -2928,7 +2921,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2508802</v>
       </c>
@@ -2939,7 +2932,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2508901</v>
       </c>
@@ -2950,7 +2943,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2509008</v>
       </c>
@@ -2961,7 +2954,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2509057</v>
       </c>
@@ -2972,7 +2965,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2509107</v>
       </c>
@@ -2983,7 +2976,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2509156</v>
       </c>
@@ -2994,7 +2987,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2509206</v>
       </c>
@@ -3005,7 +2998,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2509305</v>
       </c>
@@ -3016,7 +3009,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2509339</v>
       </c>
@@ -3027,7 +3020,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2509370</v>
       </c>
@@ -3038,7 +3031,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2509396</v>
       </c>
@@ -3049,7 +3042,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2509404</v>
       </c>
@@ -3060,7 +3053,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2509503</v>
       </c>
@@ -3071,7 +3064,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2509602</v>
       </c>
@@ -3082,7 +3075,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2509701</v>
       </c>
@@ -3093,7 +3086,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2509800</v>
       </c>
@@ -3104,7 +3097,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2509909</v>
       </c>
@@ -3115,7 +3108,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2510006</v>
       </c>
@@ -3126,7 +3119,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2510105</v>
       </c>
@@ -3137,7 +3130,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2510204</v>
       </c>
@@ -3148,7 +3141,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2510303</v>
       </c>
@@ -3159,7 +3152,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2510402</v>
       </c>
@@ -3170,7 +3163,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2510501</v>
       </c>
@@ -3181,7 +3174,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2510600</v>
       </c>
@@ -3192,7 +3185,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2510659</v>
       </c>
@@ -3203,7 +3196,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2510709</v>
       </c>
@@ -3214,7 +3207,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2510808</v>
       </c>
@@ -3225,7 +3218,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2510907</v>
       </c>
@@ -3236,7 +3229,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2511004</v>
       </c>
@@ -3247,7 +3240,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2511103</v>
       </c>
@@ -3258,7 +3251,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2511202</v>
       </c>
@@ -3269,7 +3262,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2511301</v>
       </c>
@@ -3280,7 +3273,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2511400</v>
       </c>
@@ -3291,7 +3284,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2511509</v>
       </c>
@@ -3302,7 +3295,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2511608</v>
       </c>
@@ -3313,7 +3306,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2511707</v>
       </c>
@@ -3324,7 +3317,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2511806</v>
       </c>
@@ -3335,7 +3328,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2511905</v>
       </c>
@@ -3346,7 +3339,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2512002</v>
       </c>
@@ -3357,7 +3350,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2512036</v>
       </c>
@@ -3368,7 +3361,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2512077</v>
       </c>
@@ -3379,7 +3372,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2512101</v>
       </c>
@@ -3390,7 +3383,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2512200</v>
       </c>
@@ -3401,7 +3394,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2512309</v>
       </c>
@@ -3412,7 +3405,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2512408</v>
       </c>
@@ -3423,7 +3416,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2512507</v>
       </c>
@@ -3434,7 +3427,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2512606</v>
       </c>
@@ -3445,7 +3438,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2512705</v>
       </c>
@@ -3456,7 +3449,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2512721</v>
       </c>
@@ -3467,7 +3460,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2512747</v>
       </c>
@@ -3478,7 +3471,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2512754</v>
       </c>
@@ -3489,7 +3482,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2512762</v>
       </c>
@@ -3500,7 +3493,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2512788</v>
       </c>
@@ -3511,7 +3504,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2512804</v>
       </c>
@@ -3522,7 +3515,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2512903</v>
       </c>
@@ -3533,7 +3526,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2513000</v>
       </c>
@@ -3544,7 +3537,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2513109</v>
       </c>
@@ -3555,7 +3548,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2513158</v>
       </c>
@@ -3566,7 +3559,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2513208</v>
       </c>
@@ -3577,7 +3570,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2513307</v>
       </c>
@@ -3588,7 +3581,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2513356</v>
       </c>
@@ -3599,7 +3592,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2513406</v>
       </c>
@@ -3610,7 +3603,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2513505</v>
       </c>
@@ -3621,7 +3614,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2513604</v>
       </c>
@@ -3632,7 +3625,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2513653</v>
       </c>
@@ -3643,7 +3636,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2513703</v>
       </c>
@@ -3654,7 +3647,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2513802</v>
       </c>
@@ -3665,7 +3658,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2513851</v>
       </c>
@@ -3676,7 +3669,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2513901</v>
       </c>
@@ -3687,7 +3680,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2513927</v>
       </c>
@@ -3698,7 +3691,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2513943</v>
       </c>
@@ -3709,7 +3702,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2513968</v>
       </c>
@@ -3720,7 +3713,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2513984</v>
       </c>
@@ -3731,7 +3724,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2514008</v>
       </c>
@@ -3742,7 +3735,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2514107</v>
       </c>
@@ -3753,7 +3746,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2514206</v>
       </c>
@@ -3764,7 +3757,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2514305</v>
       </c>
@@ -3775,7 +3768,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2514404</v>
       </c>
@@ -3786,7 +3779,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2514453</v>
       </c>
@@ -3797,7 +3790,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2514503</v>
       </c>
@@ -3808,7 +3801,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2514552</v>
       </c>
@@ -3819,7 +3812,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2514602</v>
       </c>
@@ -3830,7 +3823,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2514651</v>
       </c>
@@ -3841,7 +3834,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2514701</v>
       </c>
@@ -3852,7 +3845,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2514800</v>
       </c>
@@ -3863,7 +3856,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2514909</v>
       </c>
@@ -3874,7 +3867,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2515005</v>
       </c>
@@ -3885,7 +3878,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2515104</v>
       </c>
@@ -3896,7 +3889,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2515203</v>
       </c>
@@ -3907,7 +3900,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2515302</v>
       </c>
@@ -3918,7 +3911,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2515401</v>
       </c>
@@ -3929,7 +3922,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2515500</v>
       </c>
@@ -3940,7 +3933,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2515609</v>
       </c>
@@ -3951,7 +3944,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2515708</v>
       </c>
@@ -3962,7 +3955,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2515807</v>
       </c>
@@ -3973,7 +3966,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2515906</v>
       </c>
@@ -3984,7 +3977,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2515930</v>
       </c>
@@ -3995,7 +3988,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2515971</v>
       </c>
@@ -4006,7 +3999,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2516003</v>
       </c>
@@ -4017,7 +4010,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2516102</v>
       </c>
@@ -4028,7 +4021,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2516151</v>
       </c>
@@ -4039,7 +4032,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2516201</v>
       </c>
@@ -4050,7 +4043,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2516300</v>
       </c>
@@ -4061,7 +4054,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2516409</v>
       </c>
@@ -4072,7 +4065,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2516508</v>
       </c>
@@ -4083,7 +4076,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2516607</v>
       </c>
@@ -4094,7 +4087,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2516706</v>
       </c>
@@ -4105,7 +4098,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2516755</v>
       </c>
@@ -4116,7 +4109,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2516805</v>
       </c>
@@ -4127,7 +4120,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2516904</v>
       </c>
@@ -4138,7 +4131,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2517001</v>
       </c>
@@ -4149,7 +4142,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2517100</v>
       </c>
@@ -4160,7 +4153,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2517209</v>
       </c>
@@ -4171,7 +4164,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2517407</v>
       </c>
@@ -4181,9 +4174,6 @@
       <c r="C224" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B229" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
